--- a/ФСУ/9306.xlsx
+++ b/ФСУ/9306.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даниил\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даниил\Desktop\bot\ФСУ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC16F90-905A-49EE-8E3C-BAB39EE8785B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61F18D0-AD18-4749-8966-5E8A9338D97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8047249A-BE5F-4539-A09D-EC21DD2ECD90}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>Предмет</t>
   </si>
@@ -252,26 +250,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +588,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,13 +649,13 @@
       <c r="H2">
         <v>3</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -684,13 +682,13 @@
       <c r="H3">
         <v>5</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -717,13 +715,13 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -750,12 +748,12 @@
       <c r="H5">
         <v>5</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -783,12 +781,12 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -815,12 +813,12 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -847,12 +845,12 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -879,12 +877,12 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -911,12 +909,12 @@
       <c r="H10">
         <v>2</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -943,11 +941,11 @@
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="4"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -974,13 +972,13 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1007,13 +1005,13 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1040,13 +1038,13 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1289,8 +1287,8 @@
       <c r="B24">
         <v>6</v>
       </c>
-      <c r="C24" t="s">
-        <v>9</v>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1304,12 +1302,19 @@
       <c r="G24" t="s">
         <v>9</v>
       </c>
-      <c r="H24" t="s">
-        <v>9</v>
+      <c r="H24">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J2:P4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="J12:P14"/>
@@ -1322,13 +1327,6 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="J2:P4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
